--- a/plan/2025_12_plan .xlsx
+++ b/plan/2025_12_plan .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDEE6B5-4233-4B69-A1C3-4BD13F66F3FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74559E77-2E35-4990-8DB2-9063BC1D893A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,426 +161,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     </dxf>
@@ -604,6 +203,326 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,16 +541,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC937411-0054-48FF-9ED3-7D1A412C47EE}" name="表1" displayName="表1" ref="A1:BC279" headerRowCount="0">
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{FE7203C8-91AB-43B8-8CBB-4498F3A6E0B7}" name="列1" totalsRowLabel="汇总"/>
-    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="60"/>
-    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="0"/>
     <tableColumn id="12" xr3:uid="{0535F242-16B6-4215-ABC5-2A0E0227D068}" name="列12"/>
     <tableColumn id="13" xr3:uid="{C8C2EF57-9249-45BF-9A27-92ABC4D9DB44}" name="列13"/>
     <tableColumn id="14" xr3:uid="{0A1A68BC-2E04-4F0A-8CD6-B30183A99A14}" name="列14"/>
@@ -947,7 +866,7 @@
   <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1057,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
@@ -1970,202 +1889,202 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:J2">
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="49" priority="40">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$3, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2">
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="48" priority="39">
       <formula>OR(Q$1=$C2+0, Q$1=$C2+1, Q$1=$C2+3, Q$1=$C2+7+$A$3, Q$1=$C2+15, Q$1=$C2+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:K3">
-    <cfRule type="expression" dxfId="39" priority="38">
+    <cfRule type="expression" dxfId="47" priority="38">
       <formula>OR(C$1=$C3+0, C$1=$C3+1, C$1=$C3+3, C$1=$C3+7+$A$3, C$1=$C3+15, C$1=$C3+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="46" priority="37">
       <formula>OR(R$1=$C3+0, R$1=$C3+1, R$1=$C3+3, R$1=$C3+7+$A$3, R$1=$C3+15, R$1=$C3+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:L4">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="45" priority="36">
       <formula>OR(D$1=$C4+0, D$1=$C4+1, D$1=$C4+3, D$1=$C4+7+$A$3, D$1=$C4+15, D$1=$C4+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="44" priority="35">
       <formula>OR(S$1=$C4+0, S$1=$C4+1, S$1=$C4+3, S$1=$C4+7+$A$3, S$1=$C4+15, S$1=$C4+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:M5">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="43" priority="34">
       <formula>OR(E$1=$C5+0, E$1=$C5+1, E$1=$C5+3, E$1=$C5+7+$A$3, E$1=$C5+15, E$1=$C5+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
-    <cfRule type="expression" dxfId="34" priority="33">
+    <cfRule type="expression" dxfId="42" priority="33">
       <formula>OR(T$1=$C5+0, T$1=$C5+1, T$1=$C5+3, T$1=$C5+7+$A$3, T$1=$C5+15, T$1=$C5+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:N6">
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="41" priority="32">
       <formula>OR(F$1=$C6+0, F$1=$C6+1, F$1=$C6+3, F$1=$C6+7+$A$3, F$1=$C6+15, F$1=$C6+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="40" priority="31">
       <formula>OR(U$1=$C6+0, U$1=$C6+1, U$1=$C6+3, U$1=$C6+7+$A$3, U$1=$C6+15, U$1=$C6+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:O7">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>OR(G$1=$C7+0, G$1=$C7+1, G$1=$C7+3, G$1=$C7+7+$A$3, G$1=$C7+15, G$1=$C7+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>OR(V$1=$C7+0, V$1=$C7+1, V$1=$C7+3, V$1=$C7+7+$A$3, V$1=$C7+15, V$1=$C7+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:P8">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="37" priority="28">
       <formula>OR(H$1=$C8+0, H$1=$C8+1, H$1=$C8+3, H$1=$C8+7+$A$3, H$1=$C8+15, H$1=$C8+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="36" priority="27">
       <formula>OR(W$1=$C8+0, W$1=$C8+1, W$1=$C8+3, W$1=$C8+7+$A$3, W$1=$C8+15, W$1=$C8+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:Q9">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="35" priority="26">
       <formula>OR(I$1=$C9+0, I$1=$C9+1, I$1=$C9+3, I$1=$C9+7+$A$3, I$1=$C9+15, I$1=$C9+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="34" priority="25">
       <formula>OR(X$1=$C9+0, X$1=$C9+1, X$1=$C9+3, X$1=$C9+7+$A$3, X$1=$C9+15, X$1=$C9+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:R10">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>OR(J$1=$C10+0, J$1=$C10+1, J$1=$C10+3, J$1=$C10+7+$A$3, J$1=$C10+15, J$1=$C10+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>OR(Y$1=$C10+0, Y$1=$C10+1, Y$1=$C10+3, Y$1=$C10+7+$A$3, Y$1=$C10+15, Y$1=$C10+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:S11">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>OR(K$1=$C11+0, K$1=$C11+1, K$1=$C11+3, K$1=$C11+7+$A$3, K$1=$C11+15, K$1=$C11+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>OR(Z$1=$C11+0, Z$1=$C11+1, Z$1=$C11+3, Z$1=$C11+7+$A$3, Z$1=$C11+15, Z$1=$C11+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:T12">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>OR(L$1=$C12+0, L$1=$C12+1, L$1=$C12+3, L$1=$C12+7+$A$3, L$1=$C12+15, L$1=$C12+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="28" priority="19">
       <formula>OR(AA$1=$C12+0, AA$1=$C12+1, AA$1=$C12+3, AA$1=$C12+7+$A$3, AA$1=$C12+15, AA$1=$C12+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:U13">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>OR(M$1=$C13+0, M$1=$C13+1, M$1=$C13+3, M$1=$C13+7+$A$3, M$1=$C13+15, M$1=$C13+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>OR(AB$1=$C13+0, AB$1=$C13+1, AB$1=$C13+3, AB$1=$C13+7+$A$3, AB$1=$C13+15, AB$1=$C13+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:V14">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>OR(N$1=$C14+0, N$1=$C14+1, N$1=$C14+3, N$1=$C14+7+$A$3, N$1=$C14+15, N$1=$C14+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>OR(AC$1=$C14+0, AC$1=$C14+1, AC$1=$C14+3, AC$1=$C14+7+$A$3, AC$1=$C14+15, AC$1=$C14+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:W15">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="23" priority="14">
       <formula>OR(O$1=$C15+0, O$1=$C15+1, O$1=$C15+3, O$1=$C15+7+$A$3, O$1=$C15+15, O$1=$C15+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD15">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>OR(AD$1=$C15+0, AD$1=$C15+1, AD$1=$C15+3, AD$1=$C15+7+$A$3, AD$1=$C15+15, AD$1=$C15+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:X16">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>OR(P$1=$C16+0, P$1=$C16+1, P$1=$C16+3, P$1=$C16+7+$A$3, P$1=$C16+15, P$1=$C16+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE16">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>OR(AE$1=$C16+0, AE$1=$C16+1, AE$1=$C16+3, AE$1=$C16+7+$A$3, AE$1=$C16+15, AE$1=$C16+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:Y17">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>OR(Q$1=$C17+0, Q$1=$C17+1, Q$1=$C17+3, Q$1=$C17+7+$A$3, Q$1=$C17+15, Q$1=$C17+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>OR(AF$1=$C17+0, AF$1=$C17+1, AF$1=$C17+3, AF$1=$C17+7+$A$3, AF$1=$C17+15, AF$1=$C17+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:Z18">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>OR(R$1=$C18+0, R$1=$C18+1, R$1=$C18+3, R$1=$C18+7+$A$3, R$1=$C18+15, R$1=$C18+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>OR(AG$1=$C18+0, AG$1=$C18+1, AG$1=$C18+3, AG$1=$C18+7+$A$3, AG$1=$C18+15, AG$1=$C18+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:AA19">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>OR(S$1=$C19+0, S$1=$C19+1, S$1=$C19+3, S$1=$C19+7+$A$3, S$1=$C19+15, S$1=$C19+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>OR(AH$1=$C19+0, AH$1=$C19+1, AH$1=$C19+3, AH$1=$C19+7+$A$3, AH$1=$C19+15, AH$1=$C19+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:AB20">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>OR(T$1=$C20+0, T$1=$C20+1, T$1=$C20+3, T$1=$C20+7+$A$3, T$1=$C20+15, T$1=$C20+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>OR(AI$1=$C20+0, AI$1=$C20+1, AI$1=$C20+3, AI$1=$C20+7+$A$3, AI$1=$C20+15, AI$1=$C20+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21:AC21">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>OR(U$1=$C21+0, U$1=$C21+1, U$1=$C21+3, U$1=$C21+7+$A$3, U$1=$C21+15, U$1=$C21+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>OR(AJ$1=$C21+0, AJ$1=$C21+1, AJ$1=$C21+3, AJ$1=$C21+7+$A$3, AJ$1=$C21+15, AJ$1=$C21+30)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/plan/2025_12_plan .xlsx
+++ b/plan/2025_12_plan .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74559E77-2E35-4990-8DB2-9063BC1D893A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BE68E-1353-4A3C-AB33-1BD58B9202B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>0~50.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -866,7 +866,7 @@
   <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>

--- a/plan/2025_12_plan .xlsx
+++ b/plan/2025_12_plan .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BE68E-1353-4A3C-AB33-1BD58B9202B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D34666-BA63-44C8-824E-2DF6FB9DA7E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,8 +538,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC937411-0054-48FF-9ED3-7D1A412C47EE}" name="表1" displayName="表1" ref="A1:BC279" headerRowCount="0">
-  <tableColumns count="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC937411-0054-48FF-9ED3-7D1A412C47EE}" name="表1" displayName="表1" ref="A1:CP279" headerRowCount="0">
+  <tableColumns count="94">
     <tableColumn id="1" xr3:uid="{FE7203C8-91AB-43B8-8CBB-4498F3A6E0B7}" name="列1" totalsRowLabel="汇总"/>
     <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="9"/>
     <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="8"/>
@@ -595,6 +595,45 @@
     <tableColumn id="53" xr3:uid="{6E148E69-EEB6-4476-A948-60041C3C4896}" name="列53"/>
     <tableColumn id="54" xr3:uid="{CD81D9D6-A8F5-4270-A107-F06B5D66B841}" name="列54"/>
     <tableColumn id="55" xr3:uid="{8EB30C0E-C316-448E-964E-AFB765B1E5AA}" name="列55"/>
+    <tableColumn id="56" xr3:uid="{C43F44C4-F4C1-4155-9F1A-10195497E1FF}" name="列56"/>
+    <tableColumn id="57" xr3:uid="{3C4C9BD9-7CB4-467E-A62B-E6FB41DEE5F8}" name="列57"/>
+    <tableColumn id="58" xr3:uid="{B5F66209-8A42-46FE-949F-64B685902361}" name="列58"/>
+    <tableColumn id="59" xr3:uid="{5FF561B4-C298-4BE6-B1B2-70D398584A94}" name="列59"/>
+    <tableColumn id="60" xr3:uid="{0D224E05-6D19-48C6-BF5C-21C396D475AC}" name="列60"/>
+    <tableColumn id="61" xr3:uid="{691B261E-18BC-40DB-86DA-574DFE0CC6D9}" name="列61"/>
+    <tableColumn id="62" xr3:uid="{FC146E05-1CD5-486C-9F76-1BD27E238756}" name="列62"/>
+    <tableColumn id="63" xr3:uid="{2B5A20AB-11E6-4A74-B6ED-AE6E22A1A091}" name="列63"/>
+    <tableColumn id="64" xr3:uid="{955409A3-2173-49EB-B5DD-FFDAF4D8A8AA}" name="列64"/>
+    <tableColumn id="65" xr3:uid="{A5F4B2A9-56F0-4665-822B-138938F8C28A}" name="列65"/>
+    <tableColumn id="66" xr3:uid="{2F280C5A-1090-40DC-B9AA-04F5AEBE5BB8}" name="列66"/>
+    <tableColumn id="67" xr3:uid="{2E2CF7AA-0B30-4DF7-9FCA-A07FACDB4F67}" name="列67"/>
+    <tableColumn id="68" xr3:uid="{8576BEBB-6604-4BB8-B6F4-5364D4F53CBD}" name="列68"/>
+    <tableColumn id="69" xr3:uid="{111E9FFB-3DDA-4295-9DD8-27A137BEF960}" name="列69"/>
+    <tableColumn id="70" xr3:uid="{994AEBE0-B303-4858-8D0E-E088E52E09DA}" name="列70"/>
+    <tableColumn id="71" xr3:uid="{D039756A-FCC4-454A-859D-C26E146CAF3A}" name="列71"/>
+    <tableColumn id="72" xr3:uid="{27D59F39-5D13-4586-BD76-06DAC60C9D10}" name="列72"/>
+    <tableColumn id="73" xr3:uid="{E9220A64-6E93-46FC-AFB4-CD6904BF98E3}" name="列73"/>
+    <tableColumn id="74" xr3:uid="{B25265B5-6689-4535-B820-E516FF6D23E7}" name="列74"/>
+    <tableColumn id="75" xr3:uid="{0E8459A4-AC7A-4A61-AC75-EFCEFD6D8686}" name="列75"/>
+    <tableColumn id="76" xr3:uid="{1069E170-2EFC-421B-AB5F-74FA1D33680A}" name="列76"/>
+    <tableColumn id="77" xr3:uid="{BAE99B97-2F73-4262-AA7A-B543450A3E26}" name="列77"/>
+    <tableColumn id="78" xr3:uid="{3926C937-0BE6-4B1B-8B3B-6B2DC81F27C9}" name="列78"/>
+    <tableColumn id="79" xr3:uid="{C863047B-B4BA-4F05-A99C-F5B00F131ACB}" name="列79"/>
+    <tableColumn id="80" xr3:uid="{F47A2CC4-72C2-42AA-860C-1348DBE3CA4C}" name="列80"/>
+    <tableColumn id="81" xr3:uid="{F85AAEAC-C4B2-45B4-8E8D-12C7BAB61E02}" name="列81"/>
+    <tableColumn id="82" xr3:uid="{217156A1-E0C6-4FE7-BD0E-FD10E9EA72D3}" name="列82"/>
+    <tableColumn id="83" xr3:uid="{31C6EB93-C9FC-4A89-868D-D59B85046D33}" name="列83"/>
+    <tableColumn id="84" xr3:uid="{20AE2572-4A59-4F0B-B086-97255519CCD7}" name="列84"/>
+    <tableColumn id="85" xr3:uid="{E1FB9E9D-211D-439D-B7A6-DB28D9E155AB}" name="列85"/>
+    <tableColumn id="86" xr3:uid="{F1A39DC5-78CC-4C79-904E-7A4CFA91A566}" name="列86"/>
+    <tableColumn id="87" xr3:uid="{A646BFBA-3D33-4473-91AF-E4BE145AAB19}" name="列87"/>
+    <tableColumn id="88" xr3:uid="{F2FB0F7C-2468-4139-8598-98E27335A4C1}" name="列88"/>
+    <tableColumn id="89" xr3:uid="{D48DB72E-70D7-4389-B6D4-925B3235C8C9}" name="列89"/>
+    <tableColumn id="90" xr3:uid="{640FD795-ECE6-4B64-8E82-B172B45121DE}" name="列90"/>
+    <tableColumn id="91" xr3:uid="{0C2EE417-BAEB-4488-8E90-CCE0EB8A6868}" name="列91"/>
+    <tableColumn id="92" xr3:uid="{8B58E288-DE7C-48E3-AA7C-E5B7571216FF}" name="列92"/>
+    <tableColumn id="93" xr3:uid="{30CFCC82-5CD7-4E93-8633-631AB6766913}" name="列93"/>
+    <tableColumn id="94" xr3:uid="{D27353D0-72FA-4979-8DC0-6CD47B3B5271}" name="列94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,10 +902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC21"/>
+  <dimension ref="A1:CP21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -889,7 +931,7 @@
     <col min="17" max="17" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>46010</v>
       </c>
@@ -1052,8 +1094,125 @@
       <c r="BC1" s="1">
         <v>46063</v>
       </c>
+      <c r="BD1" s="1">
+        <v>46064</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>46065</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>46066</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>46067</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>46068</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>46069</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>46070</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>46071</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>46072</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>46073</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>46074</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>46075</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>46076</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>46077</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>46078</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>46079</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>46080</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>46081</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>46082</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>46083</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>46084</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>46085</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>46086</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>46087</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>46088</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>46089</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>46090</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>46091</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>46092</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>46093</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>46094</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>46095</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>46096</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>46097</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>46098</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>46099</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>46100</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>46101</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>46102</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1250,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="5"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1129,13 +1288,13 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
@@ -1168,7 +1327,7 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1367,7 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1408,7 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="3"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1450,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1334,7 +1493,7 @@
       <c r="AL8" s="5"/>
       <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1538,7 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="5"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1583,7 @@
       <c r="AN10" s="5"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1629,7 @@
       <c r="AO11" s="5"/>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1676,7 @@
       <c r="AP12" s="5"/>
       <c r="AQ12" s="3"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1565,7 +1724,7 @@
       <c r="AQ13" s="5"/>
       <c r="AR13" s="3"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1614,7 +1773,7 @@
       <c r="AR14" s="5"/>
       <c r="AS14" s="3"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1664,7 +1823,7 @@
       <c r="AS15" s="5"/>
       <c r="AT15" s="3"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/plan/2025_12_plan .xlsx
+++ b/plan/2025_12_plan .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D34666-BA63-44C8-824E-2DF6FB9DA7E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DFEF65-1295-4983-A671-3B0AC4E8C471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
   <si>
     <t>0~50.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,7 +173,15 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     </dxf>
@@ -204,326 +212,6 @@
     <dxf>
       <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -541,16 +229,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC937411-0054-48FF-9ED3-7D1A412C47EE}" name="表1" displayName="表1" ref="A1:CP279" headerRowCount="0">
   <tableColumns count="94">
     <tableColumn id="1" xr3:uid="{FE7203C8-91AB-43B8-8CBB-4498F3A6E0B7}" name="列1" totalsRowLabel="汇总"/>
-    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="1"/>
     <tableColumn id="12" xr3:uid="{0535F242-16B6-4215-ABC5-2A0E0227D068}" name="列12"/>
     <tableColumn id="13" xr3:uid="{C8C2EF57-9249-45BF-9A27-92ABC4D9DB44}" name="列13"/>
     <tableColumn id="14" xr3:uid="{0A1A68BC-2E04-4F0A-8CD6-B30183A99A14}" name="列14"/>
@@ -908,7 +596,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1252,26 +940,26 @@
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -1286,30 +974,31 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="3"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="3"/>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -1324,8 +1013,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="3"/>
+      <c r="AH4" s="3"/>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2047,204 +1735,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2">
-    <cfRule type="expression" dxfId="49" priority="40">
-      <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$3, B$1=$C2+15, B$1=$C2+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="expression" dxfId="48" priority="39">
-      <formula>OR(Q$1=$C2+0, Q$1=$C2+1, Q$1=$C2+3, Q$1=$C2+7+$A$3, Q$1=$C2+15, Q$1=$C2+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:K3">
-    <cfRule type="expression" dxfId="47" priority="38">
-      <formula>OR(C$1=$C3+0, C$1=$C3+1, C$1=$C3+3, C$1=$C3+7+$A$3, C$1=$C3+15, C$1=$C3+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="46" priority="37">
-      <formula>OR(R$1=$C3+0, R$1=$C3+1, R$1=$C3+3, R$1=$C3+7+$A$3, R$1=$C3+15, R$1=$C3+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:L4">
-    <cfRule type="expression" dxfId="45" priority="36">
-      <formula>OR(D$1=$C4+0, D$1=$C4+1, D$1=$C4+3, D$1=$C4+7+$A$3, D$1=$C4+15, D$1=$C4+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
-    <cfRule type="expression" dxfId="44" priority="35">
-      <formula>OR(S$1=$C4+0, S$1=$C4+1, S$1=$C4+3, S$1=$C4+7+$A$3, S$1=$C4+15, S$1=$C4+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:M5">
-    <cfRule type="expression" dxfId="43" priority="34">
-      <formula>OR(E$1=$C5+0, E$1=$C5+1, E$1=$C5+3, E$1=$C5+7+$A$3, E$1=$C5+15, E$1=$C5+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5">
-    <cfRule type="expression" dxfId="42" priority="33">
-      <formula>OR(T$1=$C5+0, T$1=$C5+1, T$1=$C5+3, T$1=$C5+7+$A$3, T$1=$C5+15, T$1=$C5+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:N6">
-    <cfRule type="expression" dxfId="41" priority="32">
-      <formula>OR(F$1=$C6+0, F$1=$C6+1, F$1=$C6+3, F$1=$C6+7+$A$3, F$1=$C6+15, F$1=$C6+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U6">
-    <cfRule type="expression" dxfId="40" priority="31">
-      <formula>OR(U$1=$C6+0, U$1=$C6+1, U$1=$C6+3, U$1=$C6+7+$A$3, U$1=$C6+15, U$1=$C6+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:O7">
-    <cfRule type="expression" dxfId="39" priority="30">
-      <formula>OR(G$1=$C7+0, G$1=$C7+1, G$1=$C7+3, G$1=$C7+7+$A$3, G$1=$C7+15, G$1=$C7+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V7">
-    <cfRule type="expression" dxfId="38" priority="29">
-      <formula>OR(V$1=$C7+0, V$1=$C7+1, V$1=$C7+3, V$1=$C7+7+$A$3, V$1=$C7+15, V$1=$C7+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:P8">
-    <cfRule type="expression" dxfId="37" priority="28">
-      <formula>OR(H$1=$C8+0, H$1=$C8+1, H$1=$C8+3, H$1=$C8+7+$A$3, H$1=$C8+15, H$1=$C8+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W8">
-    <cfRule type="expression" dxfId="36" priority="27">
-      <formula>OR(W$1=$C8+0, W$1=$C8+1, W$1=$C8+3, W$1=$C8+7+$A$3, W$1=$C8+15, W$1=$C8+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:Q9">
-    <cfRule type="expression" dxfId="35" priority="26">
-      <formula>OR(I$1=$C9+0, I$1=$C9+1, I$1=$C9+3, I$1=$C9+7+$A$3, I$1=$C9+15, I$1=$C9+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X9">
-    <cfRule type="expression" dxfId="34" priority="25">
-      <formula>OR(X$1=$C9+0, X$1=$C9+1, X$1=$C9+3, X$1=$C9+7+$A$3, X$1=$C9+15, X$1=$C9+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:R10">
-    <cfRule type="expression" dxfId="33" priority="24">
-      <formula>OR(J$1=$C10+0, J$1=$C10+1, J$1=$C10+3, J$1=$C10+7+$A$3, J$1=$C10+15, J$1=$C10+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="expression" dxfId="32" priority="23">
-      <formula>OR(Y$1=$C10+0, Y$1=$C10+1, Y$1=$C10+3, Y$1=$C10+7+$A$3, Y$1=$C10+15, Y$1=$C10+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:S11">
-    <cfRule type="expression" dxfId="31" priority="22">
-      <formula>OR(K$1=$C11+0, K$1=$C11+1, K$1=$C11+3, K$1=$C11+7+$A$3, K$1=$C11+15, K$1=$C11+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
-    <cfRule type="expression" dxfId="30" priority="21">
-      <formula>OR(Z$1=$C11+0, Z$1=$C11+1, Z$1=$C11+3, Z$1=$C11+7+$A$3, Z$1=$C11+15, Z$1=$C11+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:T12">
-    <cfRule type="expression" dxfId="29" priority="20">
-      <formula>OR(L$1=$C12+0, L$1=$C12+1, L$1=$C12+3, L$1=$C12+7+$A$3, L$1=$C12+15, L$1=$C12+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="28" priority="19">
-      <formula>OR(AA$1=$C12+0, AA$1=$C12+1, AA$1=$C12+3, AA$1=$C12+7+$A$3, AA$1=$C12+15, AA$1=$C12+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:U13">
-    <cfRule type="expression" dxfId="27" priority="18">
-      <formula>OR(M$1=$C13+0, M$1=$C13+1, M$1=$C13+3, M$1=$C13+7+$A$3, M$1=$C13+15, M$1=$C13+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="26" priority="17">
-      <formula>OR(AB$1=$C13+0, AB$1=$C13+1, AB$1=$C13+3, AB$1=$C13+7+$A$3, AB$1=$C13+15, AB$1=$C13+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:V14">
-    <cfRule type="expression" dxfId="25" priority="16">
-      <formula>OR(N$1=$C14+0, N$1=$C14+1, N$1=$C14+3, N$1=$C14+7+$A$3, N$1=$C14+15, N$1=$C14+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC14">
-    <cfRule type="expression" dxfId="24" priority="15">
-      <formula>OR(AC$1=$C14+0, AC$1=$C14+1, AC$1=$C14+3, AC$1=$C14+7+$A$3, AC$1=$C14+15, AC$1=$C14+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15:W15">
-    <cfRule type="expression" dxfId="23" priority="14">
-      <formula>OR(O$1=$C15+0, O$1=$C15+1, O$1=$C15+3, O$1=$C15+7+$A$3, O$1=$C15+15, O$1=$C15+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD15">
-    <cfRule type="expression" dxfId="22" priority="13">
-      <formula>OR(AD$1=$C15+0, AD$1=$C15+1, AD$1=$C15+3, AD$1=$C15+7+$A$3, AD$1=$C15+15, AD$1=$C15+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16:X16">
-    <cfRule type="expression" dxfId="21" priority="12">
-      <formula>OR(P$1=$C16+0, P$1=$C16+1, P$1=$C16+3, P$1=$C16+7+$A$3, P$1=$C16+15, P$1=$C16+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
-    <cfRule type="expression" dxfId="20" priority="11">
-      <formula>OR(AE$1=$C16+0, AE$1=$C16+1, AE$1=$C16+3, AE$1=$C16+7+$A$3, AE$1=$C16+15, AE$1=$C16+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Y17">
-    <cfRule type="expression" dxfId="19" priority="10">
-      <formula>OR(Q$1=$C17+0, Q$1=$C17+1, Q$1=$C17+3, Q$1=$C17+7+$A$3, Q$1=$C17+15, Q$1=$C17+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF17">
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>OR(AF$1=$C17+0, AF$1=$C17+1, AF$1=$C17+3, AF$1=$C17+7+$A$3, AF$1=$C17+15, AF$1=$C17+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18:Z18">
-    <cfRule type="expression" dxfId="17" priority="8">
-      <formula>OR(R$1=$C18+0, R$1=$C18+1, R$1=$C18+3, R$1=$C18+7+$A$3, R$1=$C18+15, R$1=$C18+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG18">
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>OR(AG$1=$C18+0, AG$1=$C18+1, AG$1=$C18+3, AG$1=$C18+7+$A$3, AG$1=$C18+15, AG$1=$C18+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19:AA19">
-    <cfRule type="expression" dxfId="15" priority="6">
-      <formula>OR(S$1=$C19+0, S$1=$C19+1, S$1=$C19+3, S$1=$C19+7+$A$3, S$1=$C19+15, S$1=$C19+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="14" priority="5">
-      <formula>OR(AH$1=$C19+0, AH$1=$C19+1, AH$1=$C19+3, AH$1=$C19+7+$A$3, AH$1=$C19+15, AH$1=$C19+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20:AB20">
-    <cfRule type="expression" dxfId="13" priority="4">
-      <formula>OR(T$1=$C20+0, T$1=$C20+1, T$1=$C20+3, T$1=$C20+7+$A$3, T$1=$C20+15, T$1=$C20+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>OR(AI$1=$C20+0, AI$1=$C20+1, AI$1=$C20+3, AI$1=$C20+7+$A$3, AI$1=$C20+15, AI$1=$C20+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U21:AC21">
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>OR(U$1=$C21+0, U$1=$C21+1, U$1=$C21+3, U$1=$C21+7+$A$3, U$1=$C21+15, U$1=$C21+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>OR(AJ$1=$C21+0, AJ$1=$C21+1, AJ$1=$C21+3, AJ$1=$C21+7+$A$3, AJ$1=$C21+15, AJ$1=$C21+30)</formula>
+  <conditionalFormatting sqref="B2:J2 E5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 Q2 C4:K4 R4 D3:L3 S3">
+    <cfRule type="expression" dxfId="0" priority="42">
+      <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/2025_12_plan .xlsx
+++ b/plan/2025_12_plan .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DFEF65-1295-4983-A671-3B0AC4E8C471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AE2685-26C8-43B9-AA60-EFA32F44A6B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>0~50.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500~500.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>550~600.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,10 @@
   </si>
   <si>
     <t>950~1000.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500~550.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -169,11 +169,52 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -229,16 +270,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC937411-0054-48FF-9ED3-7D1A412C47EE}" name="表1" displayName="表1" ref="A1:CP279" headerRowCount="0">
   <tableColumns count="94">
     <tableColumn id="1" xr3:uid="{FE7203C8-91AB-43B8-8CBB-4498F3A6E0B7}" name="列1" totalsRowLabel="汇总"/>
-    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="6"/>
     <tableColumn id="12" xr3:uid="{0535F242-16B6-4215-ABC5-2A0E0227D068}" name="列12"/>
     <tableColumn id="13" xr3:uid="{C8C2EF57-9249-45BF-9A27-92ABC4D9DB44}" name="列13"/>
     <tableColumn id="14" xr3:uid="{0A1A68BC-2E04-4F0A-8CD6-B30183A99A14}" name="列14"/>
@@ -596,14 +637,14 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
@@ -940,26 +981,22 @@
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -974,31 +1011,27 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="3"/>
+      <c r="AH3" s="3"/>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="2"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -1013,7 +1046,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1319,7 +1352,7 @@
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1366,7 +1399,7 @@
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1414,7 +1447,7 @@
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1463,7 +1496,7 @@
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1513,7 +1546,7 @@
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1550,7 +1583,7 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1587,7 +1620,7 @@
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1624,7 +1657,7 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -1661,7 +1694,7 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1698,7 +1731,7 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -1735,9 +1768,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2 E5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 Q2 C4:K4 R4 D3:L3 S3">
-    <cfRule type="expression" dxfId="0" priority="42">
+  <conditionalFormatting sqref="C3 B2:J2 J3 F5:M5 F6:N6 G7:O7 H8:P8 I9:Q9 Q2 J10:R10 R3 T5 U6 V7 W8 X9 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 T20:AB20 U21:AC21 AH19 AI20 AJ21">
+    <cfRule type="expression" dxfId="5" priority="44">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4 F4 H4:I4">
+    <cfRule type="expression" dxfId="4" priority="81">
+      <formula>OR(D$1=$C3+0, D$1=$C3+1, D$1=$C3+3, D$1=$C3+7+$A$4, D$1=$C3+15, D$1=$C3+30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4 D3 H3:I3 L3 K4 S4">
+    <cfRule type="expression" dxfId="3" priority="84">
+      <formula>OR(D$1=#REF!+0, D$1=#REF!+1, D$1=#REF!+3, D$1=#REF!+7+$A$4, D$1=#REF!+15, D$1=#REF!+30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="2" priority="87">
+      <formula>OR(E$1=$C6+0, E$1=$C6+1, E$1=$C6+3, E$1=$C6+7+$A$4, E$1=$C6+15, E$1=$C6+30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="1" priority="127">
+      <formula>OR(G$1=#REF!+0, G$1=#REF!+1, G$1=#REF!+3, G$1=#REF!+7+$A$4, G$1=#REF!+15, G$1=#REF!+30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR(H$1=#REF!+0, H$1=#REF!+1, H$1=#REF!+3, H$1=#REF!+7+$A$4, H$1=#REF!+15, H$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/2025_12_plan .xlsx
+++ b/plan/2025_12_plan .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AE2685-26C8-43B9-AA60-EFA32F44A6B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAE6D64-40B4-3D40-BBA2-7204CC07B8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,13 +110,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -124,7 +124,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,18 +161,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -224,34 +222,34 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,30 +635,30 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>46010</v>
       </c>
@@ -941,846 +939,339 @@
         <v>46102</v>
       </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="5"/>
-    </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="F3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="2"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="R3" s="2"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="L4" s="1"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="5"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
       <c r="AK6" s="3"/>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
       <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="5"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="5"/>
-    </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="5"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="5"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="5"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
       <c r="AQ12" s="3"/>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="5"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
       <c r="AR13" s="3"/>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
       <c r="AS14" s="3"/>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
       <c r="AT15" s="3"/>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="5"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="5"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="5"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
       <c r="AW18" s="3"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="5"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="5"/>
       <c r="AX19" s="3"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="5"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
       <c r="AY20" s="3"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="5"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
       <c r="AJ21" s="2"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
       <c r="AZ21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3 B2:J2 J3 F5:M5 F6:N6 G7:O7 H8:P8 I9:Q9 Q2 J10:R10 R3 T5 U6 V7 W8 X9 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 T20:AB20 U21:AC21 AH19 AI20 AJ21">
+  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21">
     <cfRule type="expression" dxfId="5" priority="44">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 F4 H4:I4">
-    <cfRule type="expression" dxfId="4" priority="81">
-      <formula>OR(D$1=$C3+0, D$1=$C3+1, D$1=$C3+3, D$1=$C3+7+$A$4, D$1=$C3+15, D$1=$C3+30)</formula>
+  <conditionalFormatting sqref="D3 H3:I3 L3 E4 K4 S4">
+    <cfRule type="expression" dxfId="4" priority="84">
+      <formula>OR(D$1=#REF!+0, D$1=#REF!+1, D$1=#REF!+3, D$1=#REF!+7+$A$4, D$1=#REF!+15, D$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 D3 H3:I3 L3 K4 S4">
-    <cfRule type="expression" dxfId="3" priority="84">
-      <formula>OR(D$1=#REF!+0, D$1=#REF!+1, D$1=#REF!+3, D$1=#REF!+7+$A$4, D$1=#REF!+15, D$1=#REF!+30)</formula>
+  <conditionalFormatting sqref="D4 F4 H4:I4">
+    <cfRule type="expression" dxfId="3" priority="81">
+      <formula>OR(D$1=$C3+0, D$1=$C3+1, D$1=$C3+3, D$1=$C3+7+$A$4, D$1=$C3+15, D$1=$C3+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
